--- a/Data/aearep-863/candidatepackages.xlsx
+++ b/Data/aearep-863/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -46,9 +46,6 @@
     <t>detect</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>complexity</t>
   </si>
   <si>
@@ -61,12 +58,12 @@
     <t>keepvar</t>
   </si>
   <si>
+    <t>pfs</t>
+  </si>
+  <si>
     <t>digits</t>
   </si>
   <si>
-    <t>pfs</t>
-  </si>
-  <si>
     <t>Package popularity (rank out of total # of packages)</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>/home/lv39/Workspace/AEA/all//aearep-863/119192/code</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-863/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
@@ -122,12 +116,6 @@
   </si>
   <si>
     <t>FG20_time_flag.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -171,7 +159,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D16"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -179,13 +167,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -193,7 +181,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -217,7 +205,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -229,7 +217,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -241,7 +229,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -253,10 +241,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C7">
-        <v>0.18766577541828156</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D7"/>
     </row>
@@ -265,10 +253,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="C8">
-        <v>0.23010610044002533</v>
+        <v>0.23338842391967773</v>
       </c>
       <c r="D8"/>
     </row>
@@ -277,10 +265,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>879</v>
+        <v>978</v>
       </c>
       <c r="C9">
-        <v>0.29144561290740967</v>
+        <v>0.32330578565597534</v>
       </c>
       <c r="D9"/>
     </row>
@@ -289,10 +277,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>961</v>
+        <v>1071</v>
       </c>
       <c r="C10">
-        <v>0.31863394379615784</v>
+        <v>0.35404959321022034</v>
       </c>
       <c r="D10"/>
     </row>
@@ -301,10 +289,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>985</v>
+        <v>1386</v>
       </c>
       <c r="C11">
-        <v>0.32659152150154114</v>
+        <v>0.45818182826042175</v>
       </c>
       <c r="D11"/>
     </row>
@@ -313,10 +301,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1372</v>
+        <v>1414</v>
       </c>
       <c r="C12">
-        <v>0.45490714907646179</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D12"/>
     </row>
@@ -325,10 +313,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1423</v>
+        <v>1658</v>
       </c>
       <c r="C13">
-        <v>0.47181698679924011</v>
+        <v>0.54809916019439697</v>
       </c>
       <c r="D13"/>
     </row>
@@ -337,10 +325,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1859</v>
+        <v>2409</v>
       </c>
       <c r="C14">
-        <v>0.61637932062149048</v>
+        <v>0.79636365175247192</v>
       </c>
       <c r="D14"/>
     </row>
@@ -349,10 +337,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2300</v>
+        <v>2447</v>
       </c>
       <c r="C15">
-        <v>0.76259946823120117</v>
+        <v>0.80892562866210938</v>
       </c>
       <c r="D15"/>
     </row>
@@ -361,24 +349,12 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2375</v>
+        <v>2540</v>
       </c>
       <c r="C16">
-        <v>0.78746682405471802</v>
+        <v>0.83966940641403198</v>
       </c>
       <c r="D16"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>2571</v>
-      </c>
-      <c r="C17">
-        <v>0.85245358943939209</v>
-      </c>
-      <c r="D17"/>
     </row>
   </sheetData>
 </worksheet>
@@ -386,127 +362,111 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B13"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
